--- a/Postproc_code/L227/Ice_data_bylakesize.xlsx
+++ b/Postproc_code/L227/Ice_data_bylakesize.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krsalkgu/Documents/SourceTree/Lake227/Postproc_code/L227/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C40869B1-21DE-D74F-8D63-285D4DBDC392}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A7CB1C-C074-A24E-8C5C-9CFF638BB84C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33840" yWindow="1240" windowWidth="31280" windowHeight="17740" xr2:uid="{D9E1DE8F-6608-4D97-AE93-3307BBA0F217}"/>
+    <workbookView xWindow="1360" yWindow="460" windowWidth="23820" windowHeight="14180" xr2:uid="{D9E1DE8F-6608-4D97-AE93-3307BBA0F217}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>

--- a/Postproc_code/L227/Ice_data_bylakesize.xlsx
+++ b/Postproc_code/L227/Ice_data_bylakesize.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krsalkgu/Documents/SourceTree/Lake227/Postproc_code/L227/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ks501/Documents/GithubRepos/Lake227/Postproc_code/L227/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A7CB1C-C074-A24E-8C5C-9CFF638BB84C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4B0B39-77F8-6641-8DAE-B5AB05FCBAFC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="460" windowWidth="23820" windowHeight="14180" xr2:uid="{D9E1DE8F-6608-4D97-AE93-3307BBA0F217}"/>
+    <workbookView xWindow="1360" yWindow="460" windowWidth="23660" windowHeight="19780" xr2:uid="{D9E1DE8F-6608-4D97-AE93-3307BBA0F217}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7240,7 +7240,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7255,7 +7255,7 @@
     <col min="10" max="13" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>16</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>300.8684791573462</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>20</v>
       </c>
